--- a/output/access-observation-gen-pat.xlsx
+++ b/output/access-observation-gen-pat.xlsx
@@ -174,7 +174,7 @@
     <t/>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
+    <t>ACCESS Observation General Lab (Patient) Profile</t>
   </si>
   <si>
     <t>Expected requirements for the observation resource when reflecting general lab data based on existing source mappings.</t>
